--- a/equal-costs_rand-topology_single-dest_50-100-200-400-nodes.xlsx
+++ b/equal-costs_rand-topology_single-dest_50-100-200-400-nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD50FD58-CF5C-4D2D-AD55-C1C86120D66D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8800B7A-225F-4225-8294-92F7CB3F3736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF353C41"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -188,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +223,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,16 +252,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66191</xdr:rowOff>
+      <xdr:colOff>346016</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8814C110-F911-40C0-A67C-B68159C5AAEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBDE85C-285E-402B-B38E-99A8A5800F59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,8 +277,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="4787900"/>
-          <a:ext cx="5785605" cy="4669941"/>
+          <a:off x="7901214" y="4717143"/>
+          <a:ext cx="5816088" cy="4816257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -287,17 +295,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>591892</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32731</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50409</xdr:rowOff>
+      <xdr:rowOff>131292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
+        <xdr:cNvPr id="7" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE27418-8BDD-4647-8689-BBBB298D557B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA304DAF-DAEE-43AF-9944-072A3FADC979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -313,8 +321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="184150"/>
-          <a:ext cx="6687892" cy="4285859"/>
+          <a:off x="607786" y="181429"/>
+          <a:ext cx="6718374" cy="4304149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -332,16 +340,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>378513</xdr:colOff>
+      <xdr:colOff>427139</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>40725</xdr:rowOff>
+      <xdr:rowOff>110068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
+        <xdr:cNvPr id="10" name="Imagem 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB98EB2D-30B2-45B9-BE4A-F011AA0B5E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EF9D88-E479-45FB-A2DB-B62641A9192A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -357,8 +365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="4787900"/>
-          <a:ext cx="6474513" cy="3907875"/>
+          <a:off x="607786" y="4717143"/>
+          <a:ext cx="6504996" cy="3920068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,16 +384,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>153047</xdr:colOff>
+      <xdr:colOff>211397</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>40725</xdr:rowOff>
+      <xdr:rowOff>110068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
+        <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8729D4E-FB31-4F44-9E32-9573F4C20FBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7437DC0-C411-4FE8-B944-E2F9DE654791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,8 +409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="184150"/>
-          <a:ext cx="7468247" cy="3907875"/>
+          <a:off x="7901214" y="181429"/>
+          <a:ext cx="7504826" cy="3920068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,16 +428,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>153047</xdr:colOff>
+      <xdr:colOff>211397</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>40725</xdr:rowOff>
+      <xdr:rowOff>116164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15">
+        <xdr:cNvPr id="14" name="Imagem 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD051C3-BDF5-4DB3-B4CC-B2DC762D745D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9C1017-36E9-479C-9C04-FECAC42AC597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,8 +453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16459200" y="184150"/>
-          <a:ext cx="7468247" cy="3907875"/>
+          <a:off x="16410214" y="181429"/>
+          <a:ext cx="7504826" cy="3926164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,26 +962,26 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>153.988</v>
+        <v>21.952000000000002</v>
       </c>
       <c r="N3">
         <v>27</v>
       </c>
       <c r="O3">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="P3">
         <v>27</v>
       </c>
       <c r="Q3">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="S3" s="5">
         <v>1</v>
@@ -1054,26 +1062,26 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>120.959</v>
+        <v>46.161000000000001</v>
       </c>
       <c r="N4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O4">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="P4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="S4" s="5">
         <f>S3+1</f>
@@ -1156,26 +1164,26 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>1</v>
+      <c r="K5" s="11">
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>88.126000000000005</v>
+        <v>85.56</v>
       </c>
       <c r="N5">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O5">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="P5">
         <v>27</v>
       </c>
       <c r="Q5">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:S68" si="2">S4+1</f>
@@ -1258,26 +1266,26 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>9</v>
+      <c r="K6" s="11">
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>145.059</v>
+        <v>110.14400000000001</v>
       </c>
       <c r="N6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P6">
         <v>27</v>
       </c>
       <c r="Q6">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="2"/>
@@ -1360,26 +1368,26 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>14</v>
+      <c r="K7" s="11">
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>254.732</v>
+        <v>56.533999999999999</v>
       </c>
       <c r="N7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O7">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P7">
         <v>16</v>
       </c>
       <c r="Q7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="2"/>
@@ -1462,26 +1470,26 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>4</v>
+      <c r="K8" s="11">
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>86.177999999999997</v>
+        <v>41.481999999999999</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="O8">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="2"/>
@@ -1564,26 +1572,26 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>12</v>
+      <c r="K9" s="11">
+        <v>6</v>
       </c>
       <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>41.713999999999999</v>
+      </c>
+      <c r="N9">
         <v>21</v>
       </c>
-      <c r="M9">
-        <v>137.745</v>
-      </c>
-      <c r="N9">
-        <v>38</v>
-      </c>
       <c r="O9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q9">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="2"/>
@@ -1666,26 +1674,26 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10">
-        <v>13</v>
+      <c r="K10" s="11">
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>205.17500000000001</v>
+        <v>51.295999999999999</v>
       </c>
       <c r="N10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P10">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q10">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="2"/>
@@ -1768,26 +1776,26 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>3</v>
+      <c r="K11" s="11">
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>66.81</v>
+        <v>34.276000000000003</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="O11">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q11">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="2"/>
@@ -1870,26 +1878,26 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>8</v>
+      <c r="K12" s="11">
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>195.82400000000001</v>
+        <v>39.470999999999997</v>
       </c>
       <c r="N12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O12">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="P12">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q12">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="2"/>
@@ -1972,26 +1980,26 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>2</v>
+      <c r="K13" s="11">
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>115.096</v>
+        <v>26.847999999999999</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O13">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="P13">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="2"/>
@@ -2074,26 +2082,26 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>7</v>
+      <c r="K14" s="11">
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>160.69200000000001</v>
+        <v>56.603000000000002</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O14">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q14">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="2"/>
@@ -2176,26 +2184,26 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>18</v>
+      <c r="K15" s="11">
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>186.637</v>
+        <v>111.254</v>
       </c>
       <c r="N15">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O15">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="P15">
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="2"/>
@@ -2278,26 +2286,26 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>2</v>
+      <c r="K16" s="11">
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>63.710999999999999</v>
+        <v>69.984999999999999</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O16">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="P16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q16">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="2"/>
@@ -2380,26 +2388,26 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>10</v>
+      <c r="K17" s="11">
+        <v>19</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>139.536</v>
+        <v>75.164000000000001</v>
       </c>
       <c r="N17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O17">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="P17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q17">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="2"/>
@@ -2482,26 +2490,26 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="K18" s="11">
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>140.077</v>
+        <v>29.349</v>
       </c>
       <c r="N18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O18">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="P18">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q18">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="2"/>
@@ -2584,26 +2592,26 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>1</v>
+      <c r="K19" s="11">
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>83.227999999999994</v>
+        <v>24.298999999999999</v>
       </c>
       <c r="N19">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="P19">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="2"/>
@@ -2686,26 +2694,26 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="11">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>128.51</v>
+        <v>39.993000000000002</v>
       </c>
       <c r="N20">
         <v>27</v>
       </c>
       <c r="O20">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="P20">
         <v>27</v>
       </c>
       <c r="Q20">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="2"/>
@@ -2788,26 +2796,26 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>8</v>
+      <c r="K21" s="11">
+        <v>6</v>
       </c>
       <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>46.22</v>
+      </c>
+      <c r="N21">
         <v>21</v>
       </c>
-      <c r="M21">
-        <v>132.98400000000001</v>
-      </c>
-      <c r="N21">
-        <v>34</v>
-      </c>
       <c r="O21">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="P21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q21">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="2"/>
@@ -2890,26 +2898,26 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22">
-        <v>7</v>
+      <c r="K22" s="11">
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>113.63500000000001</v>
+        <v>45.045999999999999</v>
       </c>
       <c r="N22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O22">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="P22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q22">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="2"/>
@@ -2992,26 +3000,26 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23">
-        <v>1</v>
+      <c r="K23" s="11">
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>56.817</v>
+        <v>66.591999999999999</v>
       </c>
       <c r="N23">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="O23">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="P23">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q23">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="2"/>
@@ -3094,26 +3102,26 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24">
-        <v>13</v>
+      <c r="K24" s="11">
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>140.60400000000001</v>
+        <v>61.228000000000002</v>
       </c>
       <c r="N24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="O24">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q24">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
@@ -3196,26 +3204,26 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25">
-        <v>18</v>
+      <c r="K25" s="11">
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>206.43600000000001</v>
+        <v>40.131</v>
       </c>
       <c r="N25">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="O25">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q25">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="2"/>
@@ -3298,26 +3306,26 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26">
-        <v>6</v>
+      <c r="K26" s="11">
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>76.528999999999996</v>
+        <v>58.837000000000003</v>
       </c>
       <c r="N26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O26">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="P26">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Q26">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="2"/>
@@ -3400,26 +3408,26 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="11">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>91.608000000000004</v>
+        <v>12.805</v>
       </c>
       <c r="N27">
         <v>27</v>
       </c>
       <c r="O27">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="P27">
         <v>27</v>
       </c>
       <c r="Q27">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
@@ -3502,26 +3510,26 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28">
-        <v>8</v>
+      <c r="K28" s="11">
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>101.848</v>
+        <v>20.655000000000001</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="P28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q28">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
@@ -3604,26 +3612,26 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>1</v>
+      <c r="K29" s="11">
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>50.969000000000001</v>
+        <v>48.969000000000001</v>
       </c>
       <c r="N29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O29">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="P29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q29">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="2"/>
@@ -3706,26 +3714,26 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="11">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>42.558999999999997</v>
+      </c>
+      <c r="N30">
         <v>15</v>
       </c>
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>183.39699999999999</v>
-      </c>
-      <c r="N30">
-        <v>30</v>
-      </c>
       <c r="O30">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="P30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q30">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="2"/>
@@ -3808,26 +3816,26 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31">
-        <v>3</v>
+      <c r="K31" s="11">
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>61.337000000000003</v>
+        <v>57.716999999999999</v>
       </c>
       <c r="N31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O31">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="P31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q31">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="2"/>
@@ -3910,26 +3918,26 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32">
-        <v>1</v>
+      <c r="K32" s="11">
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>123.19199999999999</v>
+        <v>104.89</v>
       </c>
       <c r="N32">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O32">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P32">
         <v>27</v>
       </c>
       <c r="Q32">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="2"/>
@@ -4012,26 +4020,26 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33">
-        <v>1</v>
+      <c r="K33" s="11">
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>135.93100000000001</v>
+        <v>95.885000000000005</v>
       </c>
       <c r="N33">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O33">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="P33">
         <v>27</v>
       </c>
       <c r="Q33">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="2"/>
@@ -4114,26 +4122,26 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="11">
+        <v>7</v>
+      </c>
+      <c r="L34">
         <v>12</v>
       </c>
-      <c r="L34">
-        <v>34</v>
-      </c>
       <c r="M34">
-        <v>235.23400000000001</v>
+        <v>31.718</v>
       </c>
       <c r="N34">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="O34">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="P34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="2"/>
@@ -4216,26 +4224,26 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="11">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>74.346999999999994</v>
+      </c>
+      <c r="N35">
+        <v>19</v>
+      </c>
+      <c r="O35">
+        <v>176</v>
+      </c>
+      <c r="P35">
         <v>14</v>
       </c>
-      <c r="L35">
-        <v>35</v>
-      </c>
-      <c r="M35">
-        <v>264.41300000000001</v>
-      </c>
-      <c r="N35">
-        <v>40</v>
-      </c>
-      <c r="O35">
-        <v>221</v>
-      </c>
-      <c r="P35">
-        <v>27</v>
-      </c>
       <c r="Q35">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="2"/>
@@ -4318,26 +4326,26 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36">
-        <v>7</v>
+      <c r="K36" s="11">
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>145.10900000000001</v>
+        <v>26.754999999999999</v>
       </c>
       <c r="N36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O36">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q36">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="2"/>
@@ -4420,26 +4428,26 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37">
-        <v>9</v>
+      <c r="K37" s="11">
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>127.536</v>
+        <v>17.007999999999999</v>
       </c>
       <c r="N37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O37">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q37">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="2"/>
@@ -4522,26 +4530,26 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38">
-        <v>8</v>
+      <c r="K38" s="11">
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>239.32599999999999</v>
+        <v>44.609000000000002</v>
       </c>
       <c r="N38">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O38">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="P38">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q38">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="2"/>
@@ -4624,26 +4632,26 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39">
-        <v>9</v>
+      <c r="K39" s="11">
+        <v>7</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>93.977000000000004</v>
+        <v>72.83</v>
       </c>
       <c r="N39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O39">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="P39">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q39">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="2"/>
@@ -4726,26 +4734,26 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40">
-        <v>2</v>
+      <c r="K40" s="11">
+        <v>8</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>67.05</v>
+        <v>58.841000000000001</v>
       </c>
       <c r="N40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="O40">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P40">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q40">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="2"/>
@@ -4828,26 +4836,26 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41">
-        <v>8</v>
+      <c r="K41" s="11">
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>93.358999999999995</v>
+        <v>48.993000000000002</v>
       </c>
       <c r="N41">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O41">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="P41">
         <v>16</v>
       </c>
       <c r="Q41">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="2"/>
@@ -4930,26 +4938,26 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="11">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>60.185000000000002</v>
+      </c>
+      <c r="N42">
+        <v>24</v>
+      </c>
+      <c r="O42">
+        <v>201</v>
+      </c>
+      <c r="P42">
         <v>14</v>
       </c>
-      <c r="L42">
-        <v>28</v>
-      </c>
-      <c r="M42">
-        <v>186.041</v>
-      </c>
-      <c r="N42">
-        <v>33</v>
-      </c>
-      <c r="O42">
-        <v>203</v>
-      </c>
-      <c r="P42">
-        <v>20</v>
-      </c>
       <c r="Q42">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="2"/>
@@ -5032,26 +5040,26 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43">
-        <v>24</v>
+      <c r="K43" s="11">
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>282.25299999999999</v>
+        <v>59.667000000000002</v>
       </c>
       <c r="N43">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="O43">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q43">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="2"/>
@@ -5134,23 +5142,23 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44">
-        <v>5</v>
+      <c r="K44" s="11">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>13</v>
       </c>
       <c r="M44">
-        <v>83.313999999999993</v>
+        <v>37.343000000000004</v>
       </c>
       <c r="N44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O44">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="P44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q44">
         <v>202</v>
@@ -5236,26 +5244,26 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45">
-        <v>1</v>
+      <c r="K45" s="11">
+        <v>16</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>93.32</v>
+        <v>126.23099999999999</v>
       </c>
       <c r="N45">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O45">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P45">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q45">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="S45" s="5">
         <f t="shared" si="2"/>
@@ -5338,26 +5346,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46">
-        <v>6</v>
+      <c r="K46" s="11">
+        <v>8</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>163.38900000000001</v>
+        <v>75.227999999999994</v>
       </c>
       <c r="N46">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O46">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P46">
         <v>27</v>
       </c>
       <c r="Q46">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S46" s="5">
         <f t="shared" si="2"/>
@@ -5440,26 +5448,26 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47">
-        <v>10</v>
+      <c r="K47" s="11">
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>126.161</v>
+        <v>41.162999999999997</v>
       </c>
       <c r="N47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O47">
+        <v>192</v>
+      </c>
+      <c r="P47">
+        <v>16</v>
+      </c>
+      <c r="Q47">
         <v>200</v>
-      </c>
-      <c r="P47">
-        <v>10</v>
-      </c>
-      <c r="Q47">
-        <v>219</v>
       </c>
       <c r="S47" s="5">
         <f t="shared" si="2"/>
@@ -5542,26 +5550,26 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48">
-        <v>11</v>
+      <c r="K48" s="11">
+        <v>25</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>163.80099999999999</v>
+        <v>100.46599999999999</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O48">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="P48">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q48">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="S48" s="5">
         <f t="shared" si="2"/>
@@ -5644,26 +5652,26 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49">
-        <v>2</v>
+      <c r="K49" s="11">
+        <v>17</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>81.576999999999998</v>
+        <v>115.098</v>
       </c>
       <c r="N49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="O49">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="P49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q49">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="S49" s="5">
         <f t="shared" si="2"/>
@@ -5746,26 +5754,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50">
-        <v>1</v>
+      <c r="K50" s="11">
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>49.808</v>
+        <v>42.274999999999999</v>
       </c>
       <c r="N50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O50">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q50">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S50" s="5">
         <f t="shared" si="2"/>
@@ -5848,26 +5856,26 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51">
-        <v>4</v>
+      <c r="K51" s="11">
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>82.599000000000004</v>
+        <v>31.007000000000001</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="O51">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Q51">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="S51" s="5">
         <f t="shared" si="2"/>
@@ -5950,26 +5958,26 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52">
-        <v>12</v>
+      <c r="K52" s="11">
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>127.435</v>
+        <v>39.244</v>
       </c>
       <c r="N52">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O52">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="P52">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q52">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="S52" s="5">
         <f t="shared" si="2"/>
@@ -6052,26 +6060,26 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53">
-        <v>3</v>
+      <c r="K53" s="11">
+        <v>12</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>97.37</v>
+        <v>54.6</v>
       </c>
       <c r="N53">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O53">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="P53">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q53">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="S53" s="5">
         <f t="shared" si="2"/>
@@ -6154,26 +6162,26 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54">
-        <v>7</v>
+      <c r="K54" s="11">
+        <v>17</v>
       </c>
       <c r="L54">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>72.299000000000007</v>
+        <v>77.168000000000006</v>
       </c>
       <c r="N54">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="O54">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="P54">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Q54">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="S54" s="5">
         <f t="shared" si="2"/>
@@ -6256,26 +6264,26 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55">
-        <v>11</v>
+      <c r="K55" s="11">
+        <v>13</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>131.42599999999999</v>
+        <v>87.75</v>
       </c>
       <c r="N55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O55">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P55">
         <v>16</v>
       </c>
       <c r="Q55">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S55" s="5">
         <f t="shared" si="2"/>
@@ -6358,26 +6366,26 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56">
-        <v>2</v>
+      <c r="K56" s="11">
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>79.370999999999995</v>
+        <v>58.847000000000001</v>
       </c>
       <c r="N56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O56">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="P56">
         <v>14</v>
       </c>
       <c r="Q56">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S56" s="5">
         <f t="shared" si="2"/>
@@ -6460,26 +6468,26 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57">
-        <v>11</v>
+      <c r="K57" s="11">
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>140.465</v>
+        <v>50.844000000000001</v>
       </c>
       <c r="N57">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O57">
+        <v>193</v>
+      </c>
+      <c r="P57">
+        <v>10</v>
+      </c>
+      <c r="Q57">
         <v>208</v>
-      </c>
-      <c r="P57">
-        <v>14</v>
-      </c>
-      <c r="Q57">
-        <v>227</v>
       </c>
       <c r="S57" s="5">
         <f t="shared" si="2"/>
@@ -6562,26 +6570,26 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58">
-        <v>1</v>
+      <c r="K58" s="11">
+        <v>13</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="M58">
-        <v>44.551000000000002</v>
+        <v>111.271</v>
       </c>
       <c r="N58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O58">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="P58">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q58">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="S58" s="5">
         <f t="shared" si="2"/>
@@ -6664,26 +6672,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59">
-        <v>15</v>
+      <c r="K59" s="11">
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M59">
-        <v>169.626</v>
+        <v>23.832000000000001</v>
       </c>
       <c r="N59">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O59">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="P59">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q59">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="S59" s="5">
         <f t="shared" si="2"/>
@@ -6766,26 +6774,26 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60">
-        <v>9</v>
+      <c r="K60" s="11">
+        <v>5</v>
       </c>
       <c r="L60">
         <v>29</v>
       </c>
       <c r="M60">
-        <v>188.935</v>
+        <v>85.376000000000005</v>
       </c>
       <c r="N60">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="O60">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P60">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q60">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S60" s="5">
         <f t="shared" si="2"/>
@@ -6868,26 +6876,26 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61">
-        <v>2</v>
+      <c r="K61" s="11">
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>130.303</v>
+        <v>48.396000000000001</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O61">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P61">
         <v>14</v>
       </c>
       <c r="Q61">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S61" s="5">
         <f t="shared" si="2"/>
@@ -6970,26 +6978,26 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="11">
         <v>12</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>180.11500000000001</v>
+        <v>99.489000000000004</v>
       </c>
       <c r="N62">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O62">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="P62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q62">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="S62" s="5">
         <f t="shared" si="2"/>
@@ -7072,26 +7080,26 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="11">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M63">
-        <v>62.658999999999999</v>
+        <v>19.123000000000001</v>
       </c>
       <c r="N63">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O63">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="P63">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q63">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="S63" s="5">
         <f t="shared" si="2"/>
@@ -7174,26 +7182,26 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64">
-        <v>20</v>
+      <c r="K64" s="11">
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>227.27600000000001</v>
+        <v>38.841000000000001</v>
       </c>
       <c r="N64">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O64">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P64">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q64">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S64" s="5">
         <f t="shared" si="2"/>
@@ -7276,26 +7284,26 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65">
-        <v>3</v>
+      <c r="K65" s="11">
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>115.931</v>
+        <v>41.316000000000003</v>
       </c>
       <c r="N65">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O65">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="P65">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q65">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="S65" s="5">
         <f t="shared" si="2"/>
@@ -7378,26 +7386,26 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66">
-        <v>1</v>
+      <c r="K66" s="11">
+        <v>7</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>24.331</v>
+        <v>49.317</v>
       </c>
       <c r="N66">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O66">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="P66">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q66">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" si="2"/>
@@ -7480,26 +7488,26 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67">
-        <v>12</v>
+      <c r="K67" s="11">
+        <v>13</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>168.45</v>
+        <v>77.489999999999995</v>
       </c>
       <c r="N67">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O67">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q67">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="S67" s="5">
         <f t="shared" si="2"/>
@@ -7582,26 +7590,26 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68">
-        <v>8</v>
+      <c r="K68" s="11">
+        <v>13</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>114.57599999999999</v>
+        <v>95.644999999999996</v>
       </c>
       <c r="N68">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O68">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="P68">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q68">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="S68" s="5">
         <f t="shared" si="2"/>
@@ -7684,26 +7692,26 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69">
-        <v>8</v>
+      <c r="K69" s="11">
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M69">
-        <v>140.09100000000001</v>
+        <v>26.827000000000002</v>
       </c>
       <c r="N69">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O69">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="P69">
         <v>27</v>
       </c>
       <c r="Q69">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="S69" s="5">
         <f t="shared" ref="S69:S102" si="6">S68+1</f>
@@ -7786,26 +7794,26 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70">
-        <v>5</v>
+      <c r="K70" s="11">
+        <v>14</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>93.649000000000001</v>
+        <v>54.466000000000001</v>
       </c>
       <c r="N70">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O70">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P70">
         <v>14</v>
       </c>
       <c r="Q70">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="S70" s="5">
         <f t="shared" si="6"/>
@@ -7888,26 +7896,26 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71">
-        <v>9</v>
+      <c r="K71" s="11">
+        <v>10</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>143.851</v>
+        <v>53.095999999999997</v>
       </c>
       <c r="N71">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O71">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P71">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q71">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="S71" s="5">
         <f t="shared" si="6"/>
@@ -7990,26 +7998,26 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72">
-        <v>16</v>
+      <c r="K72" s="11">
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>238.07400000000001</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="N72">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O72">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="P72">
         <v>27</v>
       </c>
       <c r="Q72">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="S72" s="5">
         <f t="shared" si="6"/>
@@ -8092,26 +8100,26 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73">
-        <v>1</v>
+      <c r="K73" s="11">
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>230.404</v>
+        <v>26.689</v>
       </c>
       <c r="N73">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="P73">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="S73" s="5">
         <f t="shared" si="6"/>
@@ -8194,26 +8202,26 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74">
-        <v>9</v>
+      <c r="K74" s="11">
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>119.172</v>
+        <v>73.432000000000002</v>
       </c>
       <c r="N74">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O74">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="P74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q74">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="S74" s="5">
         <f t="shared" si="6"/>
@@ -8296,26 +8304,26 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="11">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="N75">
         <v>13</v>
       </c>
-      <c r="L75">
-        <v>32</v>
-      </c>
-      <c r="M75">
-        <v>211.245</v>
-      </c>
-      <c r="N75">
-        <v>28</v>
-      </c>
       <c r="O75">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P75">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q75">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S75" s="5">
         <f t="shared" si="6"/>
@@ -8398,26 +8406,26 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76">
-        <v>6</v>
+      <c r="K76" s="11">
+        <v>10</v>
       </c>
       <c r="L76">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>76.611000000000004</v>
+        <v>55.151000000000003</v>
       </c>
       <c r="N76">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O76">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q76">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="S76" s="5">
         <f t="shared" si="6"/>
@@ -8500,26 +8508,26 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77">
-        <v>2</v>
+      <c r="K77" s="11">
+        <v>12</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M77">
-        <v>57.149000000000001</v>
+        <v>92.242000000000004</v>
       </c>
       <c r="N77">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="O77">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P77">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q77">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S77" s="5">
         <f t="shared" si="6"/>
@@ -8602,26 +8610,26 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78">
-        <v>10</v>
+      <c r="K78" s="11">
+        <v>11</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>153.22999999999999</v>
+        <v>67.694999999999993</v>
       </c>
       <c r="N78">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O78">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="P78">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q78">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="S78" s="5">
         <f t="shared" si="6"/>
@@ -8704,26 +8712,26 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79">
-        <v>8</v>
+      <c r="K79" s="11">
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M79">
-        <v>127.512</v>
+        <v>33.646999999999998</v>
       </c>
       <c r="N79">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O79">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="P79">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q79">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="S79" s="5">
         <f t="shared" si="6"/>
@@ -8806,26 +8814,26 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80">
-        <v>1</v>
+      <c r="K80" s="11">
+        <v>15</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>151.316</v>
+        <v>80.540999999999997</v>
       </c>
       <c r="N80">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O80">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="P80">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q80">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S80" s="5">
         <f t="shared" si="6"/>
@@ -8908,26 +8916,26 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81">
-        <v>2</v>
+      <c r="K81" s="11">
+        <v>6</v>
       </c>
       <c r="L81">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>65.274000000000001</v>
+        <v>71.655000000000001</v>
       </c>
       <c r="N81">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O81">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="P81">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q81">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="S81" s="5">
         <f t="shared" si="6"/>
@@ -9010,26 +9018,26 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82">
-        <v>6</v>
+      <c r="K82" s="11">
+        <v>9</v>
       </c>
       <c r="L82">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>242.39</v>
+        <v>51.277000000000001</v>
       </c>
       <c r="N82">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O82">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="P82">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q82">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="S82" s="5">
         <f t="shared" si="6"/>
@@ -9112,26 +9120,26 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="11">
         <v>1</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M83">
-        <v>38.084000000000003</v>
+        <v>32.006999999999998</v>
       </c>
       <c r="N83">
         <v>27</v>
       </c>
       <c r="O83">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P83">
         <v>27</v>
       </c>
       <c r="Q83">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="6"/>
@@ -9214,26 +9222,26 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84">
-        <v>2</v>
+      <c r="K84" s="11">
+        <v>13</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M84">
-        <v>113.137</v>
+        <v>74.061000000000007</v>
       </c>
       <c r="N84">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O84">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="P84">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Q84">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="6"/>
@@ -9316,26 +9324,26 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85">
-        <v>7</v>
+      <c r="K85" s="11">
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>87.843000000000004</v>
+        <v>61.938000000000002</v>
       </c>
       <c r="N85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O85">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="P85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q85">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="6"/>
@@ -9418,26 +9426,26 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86">
-        <v>11</v>
+      <c r="K86" s="11">
+        <v>16</v>
       </c>
       <c r="L86">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M86">
-        <v>171.887</v>
+        <v>114.248</v>
       </c>
       <c r="N86">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O86">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P86">
         <v>16</v>
       </c>
       <c r="Q86">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S86" s="5">
         <f t="shared" si="6"/>
@@ -9520,26 +9528,26 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87">
-        <v>9</v>
+      <c r="K87" s="11">
+        <v>11</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>96.953000000000003</v>
+        <v>35.893999999999998</v>
       </c>
       <c r="N87">
+        <v>24</v>
+      </c>
+      <c r="O87">
+        <v>183</v>
+      </c>
+      <c r="P87">
         <v>14</v>
       </c>
-      <c r="O87">
-        <v>166</v>
-      </c>
-      <c r="P87">
-        <v>6</v>
-      </c>
       <c r="Q87">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="S87" s="5">
         <f t="shared" si="6"/>
@@ -9622,26 +9630,26 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88">
-        <v>6</v>
+      <c r="K88" s="11">
+        <v>9</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M88">
-        <v>88.647999999999996</v>
+        <v>41.720999999999997</v>
       </c>
       <c r="N88">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O88">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="P88">
         <v>14</v>
       </c>
       <c r="Q88">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" si="6"/>
@@ -9724,26 +9732,26 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89">
-        <v>6</v>
+      <c r="K89" s="11">
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>137.66</v>
+        <v>25.091999999999999</v>
       </c>
       <c r="N89">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O89">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="P89">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q89">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="S89" s="5">
         <f t="shared" si="6"/>
@@ -9826,26 +9834,26 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90">
-        <v>1</v>
+      <c r="K90" s="11">
+        <v>6</v>
       </c>
       <c r="L90">
         <v>11</v>
       </c>
       <c r="M90">
-        <v>70.468000000000004</v>
+        <v>18.198</v>
       </c>
       <c r="N90">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O90">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="P90">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q90">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="S90" s="5">
         <f t="shared" si="6"/>
@@ -9928,26 +9936,26 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="11">
         <v>7</v>
       </c>
       <c r="L91">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M91">
-        <v>186.107</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N91">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O91">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P91">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q91">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="S91" s="5">
         <f t="shared" si="6"/>
@@ -10030,26 +10038,26 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="11">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>9</v>
+      </c>
+      <c r="M92">
+        <v>15.004</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+      <c r="O92">
+        <v>236</v>
+      </c>
+      <c r="P92">
         <v>14</v>
       </c>
-      <c r="L92">
-        <v>28</v>
-      </c>
-      <c r="M92">
-        <v>183.92599999999999</v>
-      </c>
-      <c r="N92">
-        <v>40</v>
-      </c>
-      <c r="O92">
-        <v>212</v>
-      </c>
-      <c r="P92">
-        <v>27</v>
-      </c>
       <c r="Q92">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="S92" s="5">
         <f t="shared" si="6"/>
@@ -10132,26 +10140,26 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93">
-        <v>14</v>
+      <c r="K93" s="11">
+        <v>8</v>
       </c>
       <c r="L93">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>158.78399999999999</v>
+        <v>30.574000000000002</v>
       </c>
       <c r="N93">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O93">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P93">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q93">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="S93" s="5">
         <f t="shared" si="6"/>
@@ -10234,26 +10242,26 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94">
-        <v>9</v>
+      <c r="K94" s="11">
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M94">
-        <v>112.316</v>
+        <v>12.225</v>
       </c>
       <c r="N94">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O94">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P94">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q94">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S94" s="5">
         <f t="shared" si="6"/>
@@ -10336,26 +10344,26 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95">
-        <v>1</v>
+      <c r="K95" s="11">
+        <v>16</v>
       </c>
       <c r="L95">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M95">
-        <v>69.992999999999995</v>
+        <v>47.439</v>
       </c>
       <c r="N95">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O95">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P95">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q95">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S95" s="5">
         <f t="shared" si="6"/>
@@ -10438,26 +10446,26 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96">
-        <v>9</v>
+      <c r="K96" s="11">
+        <v>8</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>102.857</v>
+        <v>32.335000000000001</v>
       </c>
       <c r="N96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O96">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P96">
         <v>10</v>
       </c>
       <c r="Q96">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S96" s="5">
         <f t="shared" si="6"/>
@@ -10540,26 +10548,26 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97">
-        <v>1</v>
+      <c r="K97" s="11">
+        <v>7</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M97">
-        <v>38.406999999999996</v>
+        <v>33.173000000000002</v>
       </c>
       <c r="N97">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O97">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="P97">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q97">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="S97" s="5">
         <f t="shared" si="6"/>
@@ -10642,26 +10650,26 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98">
-        <v>5</v>
+      <c r="K98" s="11">
+        <v>8</v>
       </c>
       <c r="L98">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M98">
-        <v>88.947999999999993</v>
+        <v>43.353999999999999</v>
       </c>
       <c r="N98">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O98">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P98">
         <v>27</v>
       </c>
       <c r="Q98">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S98" s="5">
         <f t="shared" si="6"/>
@@ -10744,26 +10752,26 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99">
-        <v>1</v>
+      <c r="K99" s="11">
+        <v>9</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M99">
-        <v>96.709000000000003</v>
+        <v>29.536000000000001</v>
       </c>
       <c r="N99">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O99">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="P99">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q99">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="S99" s="5">
         <f t="shared" si="6"/>
@@ -10846,26 +10854,26 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100">
-        <v>1</v>
+      <c r="K100" s="11">
+        <v>29</v>
       </c>
       <c r="L100">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M100">
-        <v>96.111000000000004</v>
+        <v>79.483000000000004</v>
       </c>
       <c r="N100">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O100">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P100">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q100">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="S100" s="5">
         <f t="shared" si="6"/>
@@ -10948,26 +10956,26 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101">
-        <v>4</v>
+      <c r="K101" s="11">
+        <v>11</v>
       </c>
       <c r="L101">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>95.915999999999997</v>
+        <v>31.366</v>
       </c>
       <c r="N101">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="O101">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q101">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="S101" s="5">
         <f t="shared" si="6"/>
@@ -11050,26 +11058,26 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102">
-        <v>8</v>
+      <c r="K102" s="11">
+        <v>13</v>
       </c>
       <c r="L102">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M102">
-        <v>77.632000000000005</v>
+        <v>54.738999999999997</v>
       </c>
       <c r="N102">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O102">
         <v>195</v>
       </c>
       <c r="P102">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q102">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="S102" s="5">
         <f t="shared" si="6"/>
@@ -11194,7 +11202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098CB7-946E-4F49-A7E1-F87554937800}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/equal-costs_rand-topology_single-dest_50-100-200-400-nodes.xlsx
+++ b/equal-costs_rand-topology_single-dest_50-100-200-400-nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8800B7A-225F-4225-8294-92F7CB3F3736}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9EB75E-D86D-4309-9C01-9BC14EF87F2C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,7 +224,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ118"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,56 +785,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="W1" s="8" t="s">
+      <c r="T1" s="10"/>
+      <c r="W1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AC1" s="9" t="s">
+      <c r="Z1" s="9"/>
+      <c r="AC1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AG1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8" t="s">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="8"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -962,7 +962,7 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
       <c r="L3">
@@ -1062,7 +1062,7 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>7</v>
       </c>
       <c r="L4">
@@ -1164,7 +1164,7 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>12</v>
       </c>
       <c r="L5">
@@ -1266,7 +1266,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>5</v>
       </c>
       <c r="L6">
@@ -1368,7 +1368,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>11</v>
       </c>
       <c r="L7">
@@ -1470,7 +1470,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>7</v>
       </c>
       <c r="L8">
@@ -1572,7 +1572,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>6</v>
       </c>
       <c r="L9">
@@ -1674,7 +1674,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>3</v>
       </c>
       <c r="L10">
@@ -1776,7 +1776,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>9</v>
       </c>
       <c r="L11">
@@ -1878,7 +1878,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>3</v>
       </c>
       <c r="L12">
@@ -1980,7 +1980,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13">
@@ -2082,7 +2082,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14">
@@ -2184,7 +2184,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>7</v>
       </c>
       <c r="L15">
@@ -2286,7 +2286,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16">
@@ -2388,7 +2388,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="8">
         <v>19</v>
       </c>
       <c r="L17">
@@ -2490,7 +2490,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="8">
         <v>4</v>
       </c>
       <c r="L18">
@@ -2592,7 +2592,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="8">
         <v>3</v>
       </c>
       <c r="L19">
@@ -2694,7 +2694,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="8">
         <v>1</v>
       </c>
       <c r="L20">
@@ -2796,7 +2796,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <v>6</v>
       </c>
       <c r="L21">
@@ -2898,7 +2898,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <v>2</v>
       </c>
       <c r="L22">
@@ -3000,7 +3000,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <v>3</v>
       </c>
       <c r="L23">
@@ -3102,7 +3102,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <v>5</v>
       </c>
       <c r="L24">
@@ -3204,7 +3204,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <v>2</v>
       </c>
       <c r="L25">
@@ -3306,7 +3306,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26">
@@ -3408,7 +3408,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27">
@@ -3510,7 +3510,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="8">
         <v>1</v>
       </c>
       <c r="L28">
@@ -3612,7 +3612,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="8">
         <v>10</v>
       </c>
       <c r="L29">
@@ -3714,7 +3714,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="8">
         <v>6</v>
       </c>
       <c r="L30">
@@ -3816,7 +3816,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="8">
         <v>1</v>
       </c>
       <c r="L31">
@@ -3918,7 +3918,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <v>15</v>
       </c>
       <c r="L32">
@@ -4020,7 +4020,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="8">
         <v>15</v>
       </c>
       <c r="L33">
@@ -4122,7 +4122,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="8">
         <v>7</v>
       </c>
       <c r="L34">
@@ -4224,7 +4224,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="8">
         <v>6</v>
       </c>
       <c r="L35">
@@ -4326,7 +4326,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="8">
         <v>1</v>
       </c>
       <c r="L36">
@@ -4428,7 +4428,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="8">
         <v>1</v>
       </c>
       <c r="L37">
@@ -4530,7 +4530,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="8">
         <v>1</v>
       </c>
       <c r="L38">
@@ -4632,7 +4632,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="8">
         <v>7</v>
       </c>
       <c r="L39">
@@ -4734,7 +4734,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="8">
         <v>8</v>
       </c>
       <c r="L40">
@@ -4836,7 +4836,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="8">
         <v>1</v>
       </c>
       <c r="L41">
@@ -4938,7 +4938,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="8">
         <v>11</v>
       </c>
       <c r="L42">
@@ -5040,7 +5040,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="8">
         <v>4</v>
       </c>
       <c r="L43">
@@ -5142,7 +5142,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="8">
         <v>1</v>
       </c>
       <c r="L44">
@@ -5244,7 +5244,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="8">
         <v>16</v>
       </c>
       <c r="L45">
@@ -5346,7 +5346,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="8">
         <v>8</v>
       </c>
       <c r="L46">
@@ -5448,7 +5448,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="8">
         <v>3</v>
       </c>
       <c r="L47">
@@ -5550,7 +5550,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="8">
         <v>25</v>
       </c>
       <c r="L48">
@@ -5652,7 +5652,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="8">
         <v>17</v>
       </c>
       <c r="L49">
@@ -5754,7 +5754,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="8">
         <v>4</v>
       </c>
       <c r="L50">
@@ -5856,7 +5856,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="8">
         <v>1</v>
       </c>
       <c r="L51">
@@ -5958,7 +5958,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="8">
         <v>1</v>
       </c>
       <c r="L52">
@@ -6060,7 +6060,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="8">
         <v>12</v>
       </c>
       <c r="L53">
@@ -6162,7 +6162,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="8">
         <v>17</v>
       </c>
       <c r="L54">
@@ -6264,7 +6264,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="8">
         <v>13</v>
       </c>
       <c r="L55">
@@ -6366,7 +6366,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="8">
         <v>4</v>
       </c>
       <c r="L56">
@@ -6468,7 +6468,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="8">
         <v>7</v>
       </c>
       <c r="L57">
@@ -6570,7 +6570,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="8">
         <v>13</v>
       </c>
       <c r="L58">
@@ -6672,7 +6672,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="8">
         <v>1</v>
       </c>
       <c r="L59">
@@ -6774,7 +6774,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="8">
         <v>5</v>
       </c>
       <c r="L60">
@@ -6876,7 +6876,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="8">
         <v>3</v>
       </c>
       <c r="L61">
@@ -6978,7 +6978,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="8">
         <v>12</v>
       </c>
       <c r="L62">
@@ -7080,7 +7080,7 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="8">
         <v>1</v>
       </c>
       <c r="L63">
@@ -7182,7 +7182,7 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="8">
         <v>1</v>
       </c>
       <c r="L64">
@@ -7284,7 +7284,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="8">
         <v>6</v>
       </c>
       <c r="L65">
@@ -7386,7 +7386,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="8">
         <v>7</v>
       </c>
       <c r="L66">
@@ -7488,7 +7488,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="8">
         <v>13</v>
       </c>
       <c r="L67">
@@ -7590,7 +7590,7 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="8">
         <v>13</v>
       </c>
       <c r="L68">
@@ -7692,7 +7692,7 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="8">
         <v>1</v>
       </c>
       <c r="L69">
@@ -7794,7 +7794,7 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="8">
         <v>14</v>
       </c>
       <c r="L70">
@@ -7896,7 +7896,7 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="8">
         <v>10</v>
       </c>
       <c r="L71">
@@ -7998,7 +7998,7 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="8">
         <v>4</v>
       </c>
       <c r="L72">
@@ -8100,7 +8100,7 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="8">
         <v>2</v>
       </c>
       <c r="L73">
@@ -8202,7 +8202,7 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="8">
         <v>15</v>
       </c>
       <c r="L74">
@@ -8304,7 +8304,7 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="8">
         <v>2</v>
       </c>
       <c r="L75">
@@ -8406,7 +8406,7 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="8">
         <v>10</v>
       </c>
       <c r="L76">
@@ -8508,7 +8508,7 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="8">
         <v>12</v>
       </c>
       <c r="L77">
@@ -8610,7 +8610,7 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="8">
         <v>11</v>
       </c>
       <c r="L78">
@@ -8712,7 +8712,7 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="8">
         <v>5</v>
       </c>
       <c r="L79">
@@ -8814,7 +8814,7 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="8">
         <v>15</v>
       </c>
       <c r="L80">
@@ -8916,7 +8916,7 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="8">
         <v>6</v>
       </c>
       <c r="L81">
@@ -9018,7 +9018,7 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="8">
         <v>9</v>
       </c>
       <c r="L82">
@@ -9120,7 +9120,7 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="8">
         <v>1</v>
       </c>
       <c r="L83">
@@ -9222,7 +9222,7 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="8">
         <v>13</v>
       </c>
       <c r="L84">
@@ -9324,7 +9324,7 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="8">
         <v>5</v>
       </c>
       <c r="L85">
@@ -9426,7 +9426,7 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="8">
         <v>16</v>
       </c>
       <c r="L86">
@@ -9528,7 +9528,7 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="8">
         <v>11</v>
       </c>
       <c r="L87">
@@ -9630,7 +9630,7 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="8">
         <v>9</v>
       </c>
       <c r="L88">
@@ -9732,7 +9732,7 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="8">
         <v>1</v>
       </c>
       <c r="L89">
@@ -9834,7 +9834,7 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="8">
         <v>6</v>
       </c>
       <c r="L90">
@@ -9936,7 +9936,7 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="8">
         <v>7</v>
       </c>
       <c r="L91">
@@ -10038,7 +10038,7 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="8">
         <v>2</v>
       </c>
       <c r="L92">
@@ -10140,7 +10140,7 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K93" s="8">
         <v>8</v>
       </c>
       <c r="L93">
@@ -10242,7 +10242,7 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K94" s="8">
         <v>1</v>
       </c>
       <c r="L94">
@@ -10344,7 +10344,7 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="8">
         <v>16</v>
       </c>
       <c r="L95">
@@ -10446,7 +10446,7 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="8">
         <v>8</v>
       </c>
       <c r="L96">
@@ -10548,7 +10548,7 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="8">
         <v>7</v>
       </c>
       <c r="L97">
@@ -10650,7 +10650,7 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="8">
         <v>8</v>
       </c>
       <c r="L98">
@@ -10752,7 +10752,7 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="8">
         <v>9</v>
       </c>
       <c r="L99">
@@ -10854,7 +10854,7 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100" s="11">
+      <c r="K100" s="8">
         <v>29</v>
       </c>
       <c r="L100">
@@ -10956,7 +10956,7 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="8">
         <v>11</v>
       </c>
       <c r="L101">
@@ -11058,7 +11058,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102" s="11">
+      <c r="K102" s="8">
         <v>13</v>
       </c>
       <c r="L102">
@@ -11202,7 +11202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098CB7-946E-4F49-A7E1-F87554937800}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
